--- a/Files/mood_of_twitter_revised.xlsx
+++ b/Files/mood_of_twitter_revised.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f42668a27044e00/Υπολογιστής/Repositories/Twitter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f42668a27044e00/Υπολογιστής/Repositories/Greek-Sentiment-Analysis/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A021CFE0-A6B2-40D3-A1EF-AB750B97D1E8}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52EEEA10-1624-4F99-8839-94687919E07C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-1200" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mood_of_twitter_hamming_revised" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +123,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -161,7 +161,9 @@
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3CB69319-23A5-4585-B567-0046376DCBB1}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>

--- a/Files/mood_of_twitter_revised.xlsx
+++ b/Files/mood_of_twitter_revised.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f42668a27044e00/Υπολογιστής/Repositories/Greek-Sentiment-Analysis/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52EEEA10-1624-4F99-8839-94687919E07C}"/>
+  <xr:revisionPtr revIDLastSave="552" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2943FFF-7828-40EA-BB77-CB4BD72927AC}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-1200" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mood_of_twitter_hamming_revised" sheetId="2" r:id="rId1"/>
-    <sheet name="data_jwrevised1st part" sheetId="7" r:id="rId2"/>
+    <sheet name="Hamming" sheetId="8" r:id="rId1"/>
+    <sheet name="mood_of_twitter_hamming_revised" sheetId="2" r:id="rId2"/>
+    <sheet name="Jaro_Winkler" sheetId="9" r:id="rId3"/>
+    <sheet name="data_jwrevised1st part" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'data_jwrevised1st part'!$A$1:$H$661</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">mood_of_twitter_hamming_revised!$A$1:$H$661</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'data_jwrevised1st part'!$A$1:$H$661</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">mood_of_twitter_hamming_revised!$A$1:$H$661</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -78,13 +80,60 @@
   <si>
     <t>Polarity</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,11 +157,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -120,6 +189,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -173,6 +246,152 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Picture 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80964A6C-08DA-D9BD-79E9-2E8293208A1E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$N$15" spid="_x0000_s1036"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="68580" y="3009900"/>
+              <a:ext cx="13807440" cy="2758440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>396240</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>137160</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>320040</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Picture 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E20942-E99C-9579-64D6-7B06691A84E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$N$15" spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="1531620" y="3436620"/>
+              <a:ext cx="13853160" cy="2758440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,11 +724,646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEDFDB-0AF3-4E46-B287-C364C9A00037}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.4706843841167043</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1.4439200069306584</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.80076392623393655</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>2.4024497630148312</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0.67069412040219478</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>3.1969874449918003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>0.37774581305002736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3.9709274101252575E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>4.2891569932030811E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3.1608765091021836E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>5.4282720076093225E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>2.1121301709757213E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>3.2918352348029387E-3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>2.0127189191964422E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.472229496</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.4359815615</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.79194526800000009</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>2.3926476394999998</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0.66968631000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3.1896158505000001</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0.38006946926484653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.464555754</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1.3825163979999999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0.77139534899999995</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>2.5072987480000002</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.61439475300000002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>3.212939773</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>0.405605247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0.10201497227211061</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0.11019043828820317</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>8.120438782371335E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>0.13945483287599847</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>5.4261606565197767E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>8.4568778403376968E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>5.1707685265115613E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1.0407054567679496E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>1.2141932690146313E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>6.5941526018240453E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>1.9447650412472664E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>2.9443219470363137E-3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>7.1518782806394791E-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>2.6736847154762546E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.8010000445471408</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0.88440429229718909</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>1.4932102927485271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2.4847287793141586</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>1.7137916742014943</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>2.5734992775095762</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>1.1637382474629439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-1.7376324120244722E-2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0.24138946707647777</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>0.72913149999102445</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0.87526144598672184</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>0.4597854490087479</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>0.83012059666342364</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>-0.31874846422556136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.66209672899999994</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.81979446599999983</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.63123748999999996</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>1.0205349010000002</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>0.42371083579396795</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>0.63742871100000009</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>0.38590780400000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1.160195614</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1.0941980520000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0.56169864599999997</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1.9507936509999999</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0.522795389</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>2.900737527</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>0.162273062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1.822292343</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>1.9139925179999999</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>1.1929361359999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2.9713285520000001</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>0.94650622479396795</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>3.5381662380000001</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>0.54818086600000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>970.6516935170248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>952.98720457423451</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>528.5041913143981</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1585.6168435897887</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>442.65811946544852</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>2110.0117136945883</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>249.31223661301806</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>660</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>660</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>660</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>660</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <v>660</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4">
+        <v>660</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8B4F7-B9FB-426D-978F-3269B5BCED8D}">
   <dimension ref="A1:H662"/>
   <sheetViews>
-    <sheetView topLeftCell="A611" workbookViewId="0">
-      <selection activeCell="J632" sqref="J632"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17715,12 +18569,647 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1886B6B-70D8-4BEE-B474-7BA27A96AF73}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1.5128419924061096</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1.80371570842805</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.79199873729188397</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>1.8554040546920585</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>0.50214697553128518</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>3.0477875837206136</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>0.23438245677371591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2.6827319564620309E-3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2.5238433413993715E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>1.7920962390821755E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>3.6803754438024514E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>1.1223082614503505E-3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>2.1361185238713927E-3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>1.2234201731015108E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1.514579041</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1.8067107259999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.79265860399999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>1.8433810474999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>0.50081019950000005</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>3.0448360735</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>0.2341828635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1.546278051</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>1.761451755</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0.78206699099999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>1.9496406630000001</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.48496797899999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>3.1027348360000002</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>0.25233829299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>6.8920631853944245E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>6.4838709424780525E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>4.6039785988723228E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>9.4550557104900762E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>2.8832621286574128E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>5.4877878509445754E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>3.1430233329839317E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>4.7500534951469145E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>4.2040582398711222E-3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>2.1196618938874355E-3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>8.9398078488471013E-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>8.313200502550076E-4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>3.0115815496974882E-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>9.8785956716814232E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>10.293302166512586</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>3.2645815566923977</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>1.6508096187312855</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>9.7861657150757821</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>4.9771397460970448</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9">
+        <v>4.6265305646882622</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>10.96271221580843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>-0.30285406097100759</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>-0.47174978385240585</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>-0.24956933655426083</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>2.2080560594218004</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>0.48577785558387687</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10">
+        <v>1.0109504016150455</v>
+      </c>
+      <c r="M10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>1.2467734291572743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.93294068299999999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0.62495767999999985</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0.37458928199999997</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0.85865922099999992</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11">
+        <v>0.337955069</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>0.48794593899999983</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>0.40507530999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1.0358347910000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1.462443889</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0.56521649900000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>1.633694207</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0.371077885</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <v>2.871364265</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>6.9974728999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1.9687754740000001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>2.0874015689999998</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>0.93980578100000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>2.4923534279999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>0.70903295399999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>3.3593102039999998</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>0.47505003899999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>998.47571498803234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>1190.452367562513</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>522.71916661264345</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>1224.5666760967586</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>331.4170038506482</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>2011.539805255605</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>154.6924214706525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>660</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="4">
+        <v>660</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4">
+        <v>660</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="4">
+        <v>660</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4">
+        <v>660</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4">
+        <v>660</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="4">
+        <v>660</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091AA961-9C9F-40B4-B039-8878A13C60C3}">
   <dimension ref="A1:H661"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
-      <selection activeCell="J646" sqref="J646"/>
+    <sheetView topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="G651" sqref="G651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Files/mood_of_twitter_revised.xlsx
+++ b/Files/mood_of_twitter_revised.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f42668a27044e00/Υπολογιστής/Repositories/Greek-Sentiment-Analysis/Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="552" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2943FFF-7828-40EA-BB77-CB4BD72927AC}"/>
+  <xr:revisionPtr revIDLastSave="553" documentId="11_AD4DCBB4A06381AAC71CFC5B7655F39E693EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EF50125-3A5C-40D4-83E7-E0ECFA28EC38}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hamming" sheetId="8" r:id="rId1"/>
-    <sheet name="mood_of_twitter_hamming_revised" sheetId="2" r:id="rId2"/>
-    <sheet name="Jaro_Winkler" sheetId="9" r:id="rId3"/>
-    <sheet name="data_jwrevised1st part" sheetId="7" r:id="rId4"/>
+    <sheet name="mood_of_twitter_hamming_revised" sheetId="2" r:id="rId1"/>
+    <sheet name="data_jwrevised1st part" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">'data_jwrevised1st part'!$A$1:$H$661</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">mood_of_twitter_hamming_revised!$A$1:$H$661</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">'data_jwrevised1st part'!$A$1:$H$661</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">mood_of_twitter_hamming_revised!$A$1:$H$661</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -80,60 +78,13 @@
   <si>
     <t>Polarity</t>
   </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Sample Variance</t>
-  </si>
-  <si>
-    <t>Kurtosis</t>
-  </si>
-  <si>
-    <t>Skewness</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -149,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -157,31 +108,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -189,10 +120,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,148 +173,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>68580</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>91440</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="3" name="Picture 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80964A6C-08DA-D9BD-79E9-2E8293208A1E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$N$15" spid="_x0000_s1036"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="68580" y="3009900"/>
-              <a:ext cx="13807440" cy="2758440"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>396240</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Picture 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E20942-E99C-9579-64D6-7B06691A84E5}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$N$15" spid="_x0000_s2052"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="1531620" y="3436620"/>
-              <a:ext cx="13853160" cy="2758440"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,646 +509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEDFDB-0AF3-4E46-B287-C364C9A00037}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1.4706843841167043</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1.4439200069306584</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>0.80076392623393655</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>2.4024497630148312</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>0.67069412040219478</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>3.1969874449918003</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>0.37774581305002736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>3.9709274101252575E-3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>4.2891569932030811E-3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>3.1608765091021836E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>5.4282720076093225E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>2.1121301709757213E-3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>3.2918352348029387E-3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>2.0127189191964422E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1.472229496</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1.4359815615</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0.79194526800000009</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>2.3926476394999998</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>0.66968631000000001</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>3.1896158505000001</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>0.38006946926484653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.464555754</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1.3825163979999999</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>0.77139534899999995</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>2.5072987480000002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>0.61439475300000002</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>3.212939773</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>0.405605247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.10201497227211061</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>0.11019043828820317</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>8.120438782371335E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>0.13945483287599847</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>5.4261606565197767E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>8.4568778403376968E-2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>5.1707685265115613E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>1.0407054567679496E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>1.2141932690146313E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>6.5941526018240453E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>1.9447650412472664E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>2.9443219470363137E-3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>7.1518782806394791E-3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <v>2.6736847154762546E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.8010000445471408</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>0.88440429229718909</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1.4932102927485271</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>2.4847287793141586</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>1.7137916742014943</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>2.5734992775095762</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>1.1637382474629439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>-1.7376324120244722E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>0.24138946707647777</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>0.72913149999102445</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>0.87526144598672184</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>0.4597854490087479</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>0.83012059666342364</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>-0.31874846422556136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.66209672899999994</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0.81979446599999983</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>0.63123748999999996</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>1.0205349010000002</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>0.42371083579396795</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0.63742871100000009</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>0.38590780400000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>1.160195614</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>1.0941980520000001</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>0.56169864599999997</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>1.9507936509999999</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>0.522795389</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12">
-        <v>2.900737527</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>0.162273062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1.822292343</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>1.9139925179999999</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>1.1929361359999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>2.9713285520000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>0.94650622479396795</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>3.5381662380000001</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13">
-        <v>0.54818086600000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>970.6516935170248</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>952.98720457423451</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>528.5041913143981</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>1585.6168435897887</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <v>442.65811946544852</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14">
-        <v>2110.0117136945883</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>249.31223661301806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4">
-        <v>660</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>660</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4">
-        <v>660</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4">
-        <v>660</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4">
-        <v>660</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4">
-        <v>660</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE8B4F7-B9FB-426D-978F-3269B5BCED8D}">
   <dimension ref="A1:H662"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A638" workbookViewId="0">
+      <selection activeCell="A661" sqref="A661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18569,642 +17719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1886B6B-70D8-4BEE-B474-7BA27A96AF73}">
-  <dimension ref="A1:N15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1.5128419924061096</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>1.80371570842805</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>0.79199873729188397</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>1.8554040546920585</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>0.50214697553128518</v>
-      </c>
-      <c r="K3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3">
-        <v>3.0477875837206136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>0.23438245677371591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2.6827319564620309E-3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>2.5238433413993715E-3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>1.7920962390821755E-3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>3.6803754438024514E-3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>1.1223082614503505E-3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>2.1361185238713927E-3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4">
-        <v>1.2234201731015108E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1.514579041</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>1.8067107259999999</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0.79265860399999999</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>1.8433810474999999</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>0.50081019950000005</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>3.0448360735</v>
-      </c>
-      <c r="M5" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5">
-        <v>0.2341828635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.546278051</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>1.761451755</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>0.78206699099999999</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6">
-        <v>1.9496406630000001</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>0.48496797899999999</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>3.1027348360000002</v>
-      </c>
-      <c r="M6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6">
-        <v>0.25233829299999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>6.8920631853944245E-2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>6.4838709424780525E-2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>4.6039785988723228E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>9.4550557104900762E-2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>2.8832621286574128E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>5.4877878509445754E-2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7">
-        <v>3.1430233329839317E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>4.7500534951469145E-3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>4.2040582398711222E-3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8">
-        <v>2.1196618938874355E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>8.9398078488471013E-3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8">
-        <v>8.313200502550076E-4</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8">
-        <v>3.0115815496974882E-3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8">
-        <v>9.8785956716814232E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>10.293302166512586</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>3.2645815566923977</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>1.6508096187312855</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9">
-        <v>9.7861657150757821</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9">
-        <v>4.9771397460970448</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9">
-        <v>4.6265305646882622</v>
-      </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>10.96271221580843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>-0.30285406097100759</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>-0.47174978385240585</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>-0.24956933655426083</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10">
-        <v>2.2080560594218004</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10">
-        <v>0.48577785558387687</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>1.0109504016150455</v>
-      </c>
-      <c r="M10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>1.2467734291572743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.93294068299999999</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>0.62495767999999985</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>0.37458928199999997</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>0.85865922099999992</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11">
-        <v>0.337955069</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>0.48794593899999983</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>0.40507530999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>1.0358347910000001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>1.462443889</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>0.56521649900000004</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>1.633694207</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12">
-        <v>0.371077885</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12">
-        <v>2.871364265</v>
-      </c>
-      <c r="M12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>6.9974728999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1.9687754740000001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>2.0874015689999998</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>0.93980578100000001</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>2.4923534279999999</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>0.70903295399999999</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>3.3593102039999998</v>
-      </c>
-      <c r="M13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13">
-        <v>0.47505003899999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>998.47571498803234</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>1190.452367562513</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14">
-        <v>522.71916661264345</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14">
-        <v>1224.5666760967586</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14">
-        <v>331.4170038506482</v>
-      </c>
-      <c r="K14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14">
-        <v>2011.539805255605</v>
-      </c>
-      <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14">
-        <v>154.6924214706525</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4">
-        <v>660</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>660</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4">
-        <v>660</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="4">
-        <v>660</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="4">
-        <v>660</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="4">
-        <v>660</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="4">
-        <v>660</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091AA961-9C9F-40B4-B039-8878A13C60C3}">
   <dimension ref="A1:H661"/>
   <sheetViews>
